--- a/CMIS/iMPP_TestData.xlsx
+++ b/CMIS/iMPP_TestData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="2070"/>
   </bookViews>
   <sheets>
     <sheet name="TD1" sheetId="1" r:id="rId1"/>
+    <sheet name="TD2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Userid</t>
   </si>
@@ -22,17 +23,119 @@
     <t>Password</t>
   </si>
   <si>
-    <t>pratik@imerit.net</t>
-  </si>
-  <si>
-    <t>I0001I0001</t>
+    <t>OrgName</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>NN Project</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <r>
+      <t>Software testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is an investigation conducted to provide stakeholders with information about the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>quality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>software</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> product or service under test.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Software testing can also provide an objective, independent view of the software to allow the business to appreciate and understand the risks of software implementation. Test techniques include the process of executing a program or application with the intent of finding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>software bugs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (errors or other defects), and verifying that the software product is fit for use.</t>
+    </r>
+  </si>
+  <si>
+    <t>Netradyne Technology India Private Limited - http://www.netradyne.com</t>
+  </si>
+  <si>
+    <t>namita.singh@imerit.net</t>
+  </si>
+  <si>
+    <t>na@123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +150,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,9 +199,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -378,15 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -400,16 +535,69 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="129" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CMIS/iMPP_TestData.xlsx
+++ b/CMIS/iMPP_TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Userid</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>na@123456</t>
+  </si>
+  <si>
+    <t>dates</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -208,6 +211,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -513,39 +517,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="C2" s="4">
+        <v>43408</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
